--- a/POM/keywords/TC001.xlsx
+++ b/POM/keywords/TC001.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="9900" windowHeight="6330"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16215" windowHeight="3330"/>
   </bookViews>
   <sheets>
     <sheet name="TC001" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Locator</t>
   </si>
@@ -25,38 +26,41 @@
     <t>Data</t>
   </si>
   <si>
-    <t>enterById</t>
-  </si>
-  <si>
-    <t>clickByClassName</t>
-  </si>
-  <si>
-    <t>verifyTitle</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>decorativeSubmit</t>
-  </si>
-  <si>
-    <t>DemoSalesManager</t>
-  </si>
-  <si>
-    <t>crmsfa</t>
-  </si>
-  <si>
-    <t>OpenTaps Wrong</t>
+    <t>/html/body/div[2]/div[1]/div/div[1]/div[2]/a[3]</t>
+  </si>
+  <si>
+    <t>enterByXpath</t>
+  </si>
+  <si>
+    <t>clickByXpath</t>
+  </si>
+  <si>
+    <t>/html/body/div[20]/div/div[2]/div[2]/div[2]/form/div[1]/input</t>
+  </si>
+  <si>
+    <t>rohithkumar90@ymail.com</t>
+  </si>
+  <si>
+    <t>/html/body/div[20]/div/div[2]/div[2]/div[2]/form/div[2]/input</t>
+  </si>
+  <si>
+    <t>rohith270419909940096410abcd1990</t>
+  </si>
+  <si>
+    <t>/html/body/div[20]/div/div[2]/div[2]/div[2]/form/input[1]</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div[1]/div[2]/div/div/div[3]/ul/li[1]/a</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div[1]/div[2]/div/div/div[3]/ul/li[1]/div/ul/li[13]/button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +86,13 @@
       <color theme="0"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -128,17 +139,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -439,16 +456,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" customWidth="1"/>
     <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -465,43 +482,41 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
@@ -510,10 +525,47 @@
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/POM/keywords/TC001.xlsx
+++ b/POM/keywords/TC001.xlsx
@@ -10,7 +10,6 @@
     <sheet name="TC001" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -44,9 +43,6 @@
     <t>/html/body/div[20]/div/div[2]/div[2]/div[2]/form/div[2]/input</t>
   </si>
   <si>
-    <t>rohith270419909940096410abcd1990</t>
-  </si>
-  <si>
     <t>/html/body/div[20]/div/div[2]/div[2]/div[2]/form/input[1]</t>
   </si>
   <si>
@@ -54,6 +50,9 @@
   </si>
   <si>
     <t>/html/body/div[2]/div[1]/div[2]/div/div/div[3]/ul/li[1]/div/ul/li[13]/button</t>
+  </si>
+  <si>
+    <t>rohith</t>
   </si>
 </sst>
 </file>
@@ -459,7 +458,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -526,7 +525,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -534,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -543,7 +542,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -552,7 +551,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2"/>
     </row>
